--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-009 Unbound Flexible Pavement & Checklist- Rev.5.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-009 Unbound Flexible Pavement & Checklist- Rev.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD45629C-6F6E-40FA-BEB1-4780EE49C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B6FE06-2F71-4011-BAB7-847F733D61C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="1830" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="104">
   <si>
     <t>type</t>
   </si>
@@ -67,82 +67,271 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-009 Unbound Flexible Pavement &amp; Checklist- Rev.5</t>
   </si>
   <si>
     <t>2.0 Pavement construction</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7 - </t>
-  </si>
-  <si>
     <t>3.0 Conformance check</t>
+  </si>
+  <si>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks.</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>SHL Key - S</t>
+  </si>
+  <si>
+    <t>1.2 - Lot Traceability</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality (Construction) [Cl 7.6]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Prepare a lot map for traceability of the work area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t>1.3 - Material Classification and Source</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1141 Flexible Pavements [Cl 2.3, 3.0]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Is the correct material being used?</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>Notice: 14 days before commencing</t>
+  </si>
+  <si>
+    <t>○ Has the material to be used been approved by UGL (Material certificates to be provided)?</t>
+  </si>
+  <si>
+    <t>Please tick the appropriate box:</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>_________</t>
+  </si>
+  <si>
+    <t>DGS20</t>
+  </si>
+  <si>
+    <t>DGB20</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t>Material test certificates</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>1.4 - Set Out</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Is the work area clearly pegged out for line and level?</t>
+  </si>
+  <si>
+    <t>2.1 - Delivery of Material</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1141 Flexible Pavements [Cl 4.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Inspection of delivered materials for approval</t>
+  </si>
+  <si>
+    <t>WITNESS POINT</t>
+  </si>
+  <si>
+    <t>Notice: Before placing</t>
+  </si>
+  <si>
+    <t>Key - W</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>Delivery dockets</t>
+  </si>
+  <si>
+    <t>2.2 - Stockpiling of Materials (if required)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Is the material being stored in an approved stockpile location?</t>
+  </si>
+  <si>
+    <t>WITNESS POINT: Ongoing</t>
+  </si>
+  <si>
+    <t>○ Stockpile foundation to be clear of vegetation and extraneous matter and shaped to form a crown to drain freely.</t>
+  </si>
+  <si>
+    <t>○ Stockpile total height &lt; 4m</t>
+  </si>
+  <si>
+    <t>○ Shape of batter: Side slopes not greater than 1.5H:1.0V or less than 3.0H:1.0V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 - Spreading Material </t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1141 Flexible Pavements [Cl 4.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Prior to spreading, previous layer to be inspected by the Superintendent for approval.</t>
+  </si>
+  <si>
+    <t>Notice: Prior to spreading material</t>
+  </si>
+  <si>
+    <t>○ Refer to ITP of previous Layer.</t>
+  </si>
+  <si>
+    <t>2.4 - Moisture</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the material maintained at optimum moisture content (60 to 90% OMC), with additional water being added if required during compaction?</t>
+  </si>
+  <si>
+    <t>Test reports</t>
+  </si>
+  <si>
+    <t>2.5 - Compaction</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1141 Flexible Pavements [Cl 4.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Is compacted layer thickness between 100-150mm?</t>
+  </si>
+  <si>
+    <t>Notice: 1 working days after getting results</t>
+  </si>
+  <si>
+    <t>○ Has the layer been adequately compacted to a minimum relative compaction of 97%?</t>
+  </si>
+  <si>
+    <t>2.6 - Removal &amp; Replacement</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1141 Flexible Pavements [Cl 4.7]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Superintendent to determine the extent of any rejected pavement to be removed. Before replacing the material, area to be reinspected by the superintendent</t>
+  </si>
+  <si>
+    <t>Notice: 1 working day before next activity</t>
+  </si>
+  <si>
+    <t>As built reports</t>
+  </si>
+  <si>
+    <t>2.7 - Maintenance of Base</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1141 Flexible Pavements [Cl 4.8]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Finished surface of the base course must be maintained and appropriately drained until the wearing course is completed.</t>
+  </si>
+  <si>
+    <t>Notice: within 7 days of acceptance</t>
+  </si>
+  <si>
+    <t>○ Cover base course with primerseal within 7 days of acceptance unless agreed otherwise with the superintendent (see 1143 Sprayed Bituminous Surfacing)</t>
+  </si>
+  <si>
+    <t>○ Non-essential plant to be restricted from using the pavement until primerseal is applied unless otherwise approved.</t>
+  </si>
+  <si>
+    <t>3.1 - Pavement finish</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 1141 Flexible Pavements [Cl 4.6]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Has the pavement course been finished to a smooth and uniform surface parallel with proposed finished wearing surface?</t>
+  </si>
+  <si>
+    <t>3.2 - Width and alignment</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Is the pavement width and alignment within tolerance: 0mm to +100mm measured from the design centreline (limited to 50mm per side)</t>
+  </si>
+  <si>
+    <t>3.3 - Surface level of pavement courses</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Is the pavement surface level within the following tolerances:</t>
+  </si>
+  <si>
+    <t>○ Top Base Layer adjacent to Kerb and gutter: ± 5mm from lip level of gutter less thickness of wearing course</t>
+  </si>
+  <si>
+    <t>○ Surface deviation: ± 5mm from 3m straightedge laid in any direction, after trimming and immediately prior to seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ Layer Surface: 0mm to +10mm </t>
+  </si>
+  <si>
+    <t>3.4 - Acceptance and closure of non-conforming items</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [Cl 3.8]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - NCRs to be opened for non-conforming items and closed prior to closing construction lot.</t>
   </si>
 </sst>
 </file>
@@ -285,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +844,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -664,6 +859,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1021,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1081,24 +1279,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1106,7 +1304,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1114,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1133,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1141,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1149,15 +1347,15 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1165,7 +1363,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1192,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,42 +1406,39 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,82 +1462,85 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,7 +1548,7 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,34 +1556,31 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>19</v>
+      <c r="A37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,15 +1588,18 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,34 +1615,31 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>20</v>
+      <c r="A45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,15 +1647,15 @@
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>28</v>
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,7 +1671,7 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1690,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,42 +1706,39 @@
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>36</v>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>16</v>
+      <c r="A56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,7 +1746,7 @@
         <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,7 +1754,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,15 +1762,15 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>37</v>
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,26 +1778,26 @@
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>16</v>
+      <c r="A63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,7 +1805,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,23 +1813,23 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>33</v>
+      <c r="A67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>38</v>
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,18 +1845,15 @@
         <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,15 +1861,18 @@
         <v>13</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>20</v>
+      <c r="A73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1688,15 +1880,15 @@
         <v>13</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>39</v>
+      <c r="A75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1704,26 +1896,23 @@
         <v>13</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>16</v>
+      <c r="A77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
+      <c r="A78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,7 +1920,7 @@
         <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,31 +1928,34 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>33</v>
+      <c r="A81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>40</v>
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>29</v>
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,7 +1963,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1779,26 +1971,23 @@
         <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>12</v>
+      <c r="A86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>19</v>
+      <c r="A87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1806,7 +1995,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,15 +2003,15 @@
         <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>32</v>
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1838,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,7 +2046,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,7 +2054,7 @@
         <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1873,42 +2062,39 @@
         <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>31</v>
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>16</v>
+      <c r="A99" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>12</v>
+      <c r="A100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,7 +2110,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1932,23 +2118,26 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>30</v>
+      <c r="A104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>15</v>
+      <c r="A105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,18 +2145,15 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>12</v>
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,7 +2161,7 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,15 +2169,478 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
